--- a/data/pca/factorExposure/factorExposure_2015-10-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01107163862726669</v>
+        <v>0.01455449830197431</v>
       </c>
       <c r="C2">
-        <v>-0.03021571251845786</v>
+        <v>0.03536561127313106</v>
       </c>
       <c r="D2">
-        <v>-0.1055021812890114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1292759862118454</v>
+      </c>
+      <c r="E2">
+        <v>-0.05767527703879295</v>
+      </c>
+      <c r="F2">
+        <v>0.01547799920994932</v>
+      </c>
+      <c r="G2">
+        <v>-0.08496141873697365</v>
+      </c>
+      <c r="H2">
+        <v>-0.08658774995117392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01474478043499187</v>
+        <v>0.01047121532078285</v>
       </c>
       <c r="C3">
-        <v>-0.05450533341869989</v>
+        <v>0.04316152360109728</v>
       </c>
       <c r="D3">
-        <v>-0.08737913648406415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.05562223658104411</v>
+      </c>
+      <c r="E3">
+        <v>-0.04268567357367965</v>
+      </c>
+      <c r="F3">
+        <v>0.06988168042003981</v>
+      </c>
+      <c r="G3">
+        <v>-0.1338790789934458</v>
+      </c>
+      <c r="H3">
+        <v>-0.02332999253724092</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04581723425651464</v>
+        <v>0.05104444839801201</v>
       </c>
       <c r="C4">
-        <v>-0.0575412011765823</v>
+        <v>0.07027932529642958</v>
       </c>
       <c r="D4">
-        <v>-0.1257352986861739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1453831832994776</v>
+      </c>
+      <c r="E4">
+        <v>-0.05466610015163369</v>
+      </c>
+      <c r="F4">
+        <v>0.02877760714890117</v>
+      </c>
+      <c r="G4">
+        <v>0.04449210317778573</v>
+      </c>
+      <c r="H4">
+        <v>-0.01592591413344605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03588753096632172</v>
+        <v>0.03809135882701389</v>
       </c>
       <c r="C6">
-        <v>-0.02304750893377904</v>
+        <v>0.02845264619115004</v>
       </c>
       <c r="D6">
-        <v>-0.1454860797043996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1418439089817341</v>
+      </c>
+      <c r="E6">
+        <v>-0.02268538118979806</v>
+      </c>
+      <c r="F6">
+        <v>0.01793630032483341</v>
+      </c>
+      <c r="G6">
+        <v>-0.004045247237703938</v>
+      </c>
+      <c r="H6">
+        <v>-0.05288808213718599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01505181384269205</v>
+        <v>0.01235238455454662</v>
       </c>
       <c r="C7">
-        <v>-0.0276131925740975</v>
+        <v>0.03338414707419873</v>
       </c>
       <c r="D7">
-        <v>-0.1046342087824968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09768563599265201</v>
+      </c>
+      <c r="E7">
+        <v>-0.01723249487003681</v>
+      </c>
+      <c r="F7">
+        <v>0.02042055944855382</v>
+      </c>
+      <c r="G7">
+        <v>-0.02894006995071475</v>
+      </c>
+      <c r="H7">
+        <v>-0.08439022570825412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.003215211983623272</v>
+        <v>0.005313895086254342</v>
       </c>
       <c r="C8">
-        <v>-0.03769720725941945</v>
+        <v>0.0391374495557637</v>
       </c>
       <c r="D8">
-        <v>-0.06907369895064372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.08441492917634949</v>
+      </c>
+      <c r="E8">
+        <v>-0.03584517060071038</v>
+      </c>
+      <c r="F8">
+        <v>0.06870611446377296</v>
+      </c>
+      <c r="G8">
+        <v>-0.05148635891001872</v>
+      </c>
+      <c r="H8">
+        <v>-0.05162630056424278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03822237902619463</v>
+        <v>0.04083083806242879</v>
       </c>
       <c r="C9">
-        <v>-0.05236653439507246</v>
+        <v>0.06398200002628286</v>
       </c>
       <c r="D9">
-        <v>-0.1102498903011911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1218317325658749</v>
+      </c>
+      <c r="E9">
+        <v>-0.03962555762495729</v>
+      </c>
+      <c r="F9">
+        <v>0.01239533412254863</v>
+      </c>
+      <c r="G9">
+        <v>0.02527492996657</v>
+      </c>
+      <c r="H9">
+        <v>-0.01767048992747692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1182447899165354</v>
+        <v>0.1473507960662759</v>
       </c>
       <c r="C10">
-        <v>0.1803218819448549</v>
+        <v>-0.1879118420763662</v>
       </c>
       <c r="D10">
-        <v>-0.001336666700238448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.009587608378358299</v>
+      </c>
+      <c r="E10">
+        <v>-0.04384679461337655</v>
+      </c>
+      <c r="F10">
+        <v>0.04811111711973756</v>
+      </c>
+      <c r="G10">
+        <v>0.01434108084509722</v>
+      </c>
+      <c r="H10">
+        <v>0.0308648764148937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02889852490738008</v>
+        <v>0.02851589707851394</v>
       </c>
       <c r="C11">
-        <v>-0.04168078262441772</v>
+        <v>0.04517142953772631</v>
       </c>
       <c r="D11">
-        <v>-0.05961968072980012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05867599803340564</v>
+      </c>
+      <c r="E11">
+        <v>0.009071208257848788</v>
+      </c>
+      <c r="F11">
+        <v>-0.008079040759641548</v>
+      </c>
+      <c r="G11">
+        <v>-0.006971089597010495</v>
+      </c>
+      <c r="H11">
+        <v>-0.03585471821022909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03508105607567641</v>
+        <v>0.03318466671281418</v>
       </c>
       <c r="C12">
-        <v>-0.04357378366087473</v>
+        <v>0.04775080944711455</v>
       </c>
       <c r="D12">
-        <v>-0.05978863314493286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05664474615541032</v>
+      </c>
+      <c r="E12">
+        <v>0.0002678693342465382</v>
+      </c>
+      <c r="F12">
+        <v>-0.01262837432693385</v>
+      </c>
+      <c r="G12">
+        <v>-0.01564242940512563</v>
+      </c>
+      <c r="H12">
+        <v>-0.03571056410984211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.009663994374290904</v>
+        <v>0.0159371164744106</v>
       </c>
       <c r="C13">
-        <v>-0.03483873694531731</v>
+        <v>0.04021100176638941</v>
       </c>
       <c r="D13">
-        <v>-0.1370366117892791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1555550355636687</v>
+      </c>
+      <c r="E13">
+        <v>-0.03184734791146612</v>
+      </c>
+      <c r="F13">
+        <v>0.05010129401223917</v>
+      </c>
+      <c r="G13">
+        <v>-0.0380471168901925</v>
+      </c>
+      <c r="H13">
+        <v>-0.07579198058497297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.001656047866171954</v>
+        <v>0.006079890631707111</v>
       </c>
       <c r="C14">
-        <v>-0.02196668651433744</v>
+        <v>0.02352069703002287</v>
       </c>
       <c r="D14">
-        <v>-0.08555484587552782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.09269946136603317</v>
+      </c>
+      <c r="E14">
+        <v>-0.03094411249038937</v>
+      </c>
+      <c r="F14">
+        <v>0.006260301365269341</v>
+      </c>
+      <c r="G14">
+        <v>-0.03545301416754628</v>
+      </c>
+      <c r="H14">
+        <v>-0.1020511202276673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002924528113277842</v>
+        <v>0.0008689190013646352</v>
       </c>
       <c r="C15">
-        <v>-0.003240725648861047</v>
+        <v>0.01215992786680874</v>
       </c>
       <c r="D15">
-        <v>-0.003339153142217598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03521468916405401</v>
+      </c>
+      <c r="E15">
+        <v>-0.01007823462932318</v>
+      </c>
+      <c r="F15">
+        <v>-0.0003869547007694212</v>
+      </c>
+      <c r="G15">
+        <v>-0.01034964222585841</v>
+      </c>
+      <c r="H15">
+        <v>-0.01878351041304202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02902531103367073</v>
+        <v>0.02879602287623036</v>
       </c>
       <c r="C16">
-        <v>-0.04391019681641086</v>
+        <v>0.04607247006138163</v>
       </c>
       <c r="D16">
-        <v>-0.0635978591154447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06224378484195647</v>
+      </c>
+      <c r="E16">
+        <v>-0.007571686891448329</v>
+      </c>
+      <c r="F16">
+        <v>-0.004537928371675582</v>
+      </c>
+      <c r="G16">
+        <v>-0.01432334629799574</v>
+      </c>
+      <c r="H16">
+        <v>-0.05155487370842458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.007154862999126411</v>
+        <v>0.005888039606568383</v>
       </c>
       <c r="C19">
-        <v>-0.03193836629289408</v>
+        <v>0.02660446913650037</v>
       </c>
       <c r="D19">
-        <v>-0.1515538109633513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.117030939211921</v>
+      </c>
+      <c r="E19">
+        <v>-0.06176573964323474</v>
+      </c>
+      <c r="F19">
+        <v>-0.006308955712974364</v>
+      </c>
+      <c r="G19">
+        <v>-0.04412486436627219</v>
+      </c>
+      <c r="H19">
+        <v>-0.04144997983793992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01111597956958149</v>
+        <v>0.01461653069360692</v>
       </c>
       <c r="C20">
-        <v>-0.03144550734794586</v>
+        <v>0.03472376152607672</v>
       </c>
       <c r="D20">
-        <v>-0.08625445010935839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1021793276204849</v>
+      </c>
+      <c r="E20">
+        <v>-0.04937076608898888</v>
+      </c>
+      <c r="F20">
+        <v>0.003116191588450587</v>
+      </c>
+      <c r="G20">
+        <v>-0.01122932528272103</v>
+      </c>
+      <c r="H20">
+        <v>-0.05925006992429565</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001613665274176888</v>
+        <v>0.007653637943941317</v>
       </c>
       <c r="C21">
-        <v>-0.03066399848721848</v>
+        <v>0.03797124015395234</v>
       </c>
       <c r="D21">
-        <v>-0.1285975272957395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1399830839041127</v>
+      </c>
+      <c r="E21">
+        <v>-0.08499580397188243</v>
+      </c>
+      <c r="F21">
+        <v>0.02303227237660623</v>
+      </c>
+      <c r="G21">
+        <v>-0.01755342136015497</v>
+      </c>
+      <c r="H21">
+        <v>-0.08416162048867724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004285227858253181</v>
+        <v>0.005332009444943311</v>
       </c>
       <c r="C22">
-        <v>-0.04563156202405668</v>
+        <v>0.04434006985578578</v>
       </c>
       <c r="D22">
-        <v>-0.1061637550776346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1571928507818529</v>
+      </c>
+      <c r="E22">
+        <v>-0.02275548536817353</v>
+      </c>
+      <c r="F22">
+        <v>0.09968927400443982</v>
+      </c>
+      <c r="G22">
+        <v>-0.08239802251738139</v>
+      </c>
+      <c r="H22">
+        <v>0.004859406166920506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00417400636951987</v>
+        <v>0.005459586968342794</v>
       </c>
       <c r="C23">
-        <v>-0.04593169139360006</v>
+        <v>0.04481368731258734</v>
       </c>
       <c r="D23">
-        <v>-0.1055975429625757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1564892042428099</v>
+      </c>
+      <c r="E23">
+        <v>-0.02319924759912987</v>
+      </c>
+      <c r="F23">
+        <v>0.09976847646241682</v>
+      </c>
+      <c r="G23">
+        <v>-0.08151454468747422</v>
+      </c>
+      <c r="H23">
+        <v>0.005130888700814444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03120161765626417</v>
+        <v>0.03013183850220606</v>
       </c>
       <c r="C24">
-        <v>-0.05438541840437187</v>
+        <v>0.05830286274842864</v>
       </c>
       <c r="D24">
-        <v>-0.06512529224565922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06557441862735416</v>
+      </c>
+      <c r="E24">
+        <v>-0.009824270755342311</v>
+      </c>
+      <c r="F24">
+        <v>-0.00826130655265012</v>
+      </c>
+      <c r="G24">
+        <v>-0.006168973941544377</v>
+      </c>
+      <c r="H24">
+        <v>-0.06029593203016999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03600288760336838</v>
+        <v>0.03425345561709778</v>
       </c>
       <c r="C25">
-        <v>-0.0521374071926906</v>
+        <v>0.05523408424670372</v>
       </c>
       <c r="D25">
-        <v>-0.06323854975162221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0625423398958397</v>
+      </c>
+      <c r="E25">
+        <v>-0.009808477577097017</v>
+      </c>
+      <c r="F25">
+        <v>-0.003134917491072909</v>
+      </c>
+      <c r="G25">
+        <v>-0.008643812968375162</v>
+      </c>
+      <c r="H25">
+        <v>-0.0298384294822523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01466059240473295</v>
+        <v>0.01754516165319747</v>
       </c>
       <c r="C26">
-        <v>-0.01182342287344198</v>
+        <v>0.01754424104250965</v>
       </c>
       <c r="D26">
-        <v>-0.05782837489109491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06549036438663058</v>
+      </c>
+      <c r="E26">
+        <v>-0.01949021589976242</v>
+      </c>
+      <c r="F26">
+        <v>0.01194496554495451</v>
+      </c>
+      <c r="G26">
+        <v>-0.01937934735086954</v>
+      </c>
+      <c r="H26">
+        <v>-0.0634521890859725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1714234299030228</v>
+        <v>0.2097842361344112</v>
       </c>
       <c r="C28">
-        <v>0.254342653857567</v>
+        <v>-0.251822953919997</v>
       </c>
       <c r="D28">
-        <v>0.01545816195723997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004378700158421191</v>
+      </c>
+      <c r="E28">
+        <v>-0.07478131186189522</v>
+      </c>
+      <c r="F28">
+        <v>0.02439349411371349</v>
+      </c>
+      <c r="G28">
+        <v>0.04589075599695318</v>
+      </c>
+      <c r="H28">
+        <v>0.02784351203603972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0008689333932533589</v>
+        <v>0.00340828200425301</v>
       </c>
       <c r="C29">
-        <v>-0.02303983723953643</v>
+        <v>0.02243892739783416</v>
       </c>
       <c r="D29">
-        <v>-0.07129666243314259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0901837149615108</v>
+      </c>
+      <c r="E29">
+        <v>-0.02263495796807319</v>
+      </c>
+      <c r="F29">
+        <v>0.02406575407194358</v>
+      </c>
+      <c r="G29">
+        <v>-0.02293246191743726</v>
+      </c>
+      <c r="H29">
+        <v>-0.1048199756444763</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0274014745408801</v>
+        <v>0.03712941343589941</v>
       </c>
       <c r="C30">
-        <v>-0.04729439112139154</v>
+        <v>0.06118841185478711</v>
       </c>
       <c r="D30">
-        <v>-0.1568974069926152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1738558509487074</v>
+      </c>
+      <c r="E30">
+        <v>-0.02547376385865486</v>
+      </c>
+      <c r="F30">
+        <v>0.014452860350826</v>
+      </c>
+      <c r="G30">
+        <v>-0.001089695760042761</v>
+      </c>
+      <c r="H30">
+        <v>-0.07686235685323869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0578447841391807</v>
+        <v>0.05215486955670232</v>
       </c>
       <c r="C31">
-        <v>-0.06508655698656791</v>
+        <v>0.07586092163270369</v>
       </c>
       <c r="D31">
-        <v>-0.06957192259391591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05502703301818888</v>
+      </c>
+      <c r="E31">
+        <v>-0.02364875600343478</v>
+      </c>
+      <c r="F31">
+        <v>0.0369993870553014</v>
+      </c>
+      <c r="G31">
+        <v>-0.004145539174907005</v>
+      </c>
+      <c r="H31">
+        <v>-0.01483449597905024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.008182653540159722</v>
+        <v>0.01580549328188127</v>
       </c>
       <c r="C32">
-        <v>-0.01064605776095362</v>
+        <v>0.0141978043578455</v>
       </c>
       <c r="D32">
-        <v>-0.06976073793993118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1134048604040039</v>
+      </c>
+      <c r="E32">
+        <v>-0.07944687818632463</v>
+      </c>
+      <c r="F32">
+        <v>0.03035128166610441</v>
+      </c>
+      <c r="G32">
+        <v>-0.008802736684983924</v>
+      </c>
+      <c r="H32">
+        <v>-0.07123313205789152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0209585223097586</v>
+        <v>0.02409563363187613</v>
       </c>
       <c r="C33">
-        <v>-0.03802609146571632</v>
+        <v>0.04457601780205104</v>
       </c>
       <c r="D33">
-        <v>-0.1351961990361866</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1343561424043715</v>
+      </c>
+      <c r="E33">
+        <v>-0.04082593781175124</v>
+      </c>
+      <c r="F33">
+        <v>0.01514987033639122</v>
+      </c>
+      <c r="G33">
+        <v>-0.02336624134472226</v>
+      </c>
+      <c r="H33">
+        <v>-0.06291063252768006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03060079540237465</v>
+        <v>0.02689196691608525</v>
       </c>
       <c r="C34">
-        <v>-0.06367165790501335</v>
+        <v>0.06253209717170169</v>
       </c>
       <c r="D34">
-        <v>-0.06664482906683265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05581459930822614</v>
+      </c>
+      <c r="E34">
+        <v>0.007513137749147217</v>
+      </c>
+      <c r="F34">
+        <v>-0.01750184834295892</v>
+      </c>
+      <c r="G34">
+        <v>-0.01810405471878572</v>
+      </c>
+      <c r="H34">
+        <v>-0.04278335155542373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008029373503757087</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009073342360883994</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.007138541844759884</v>
+      </c>
+      <c r="E35">
+        <v>0.0004791711966634581</v>
+      </c>
+      <c r="F35">
+        <v>0.0009434759347899784</v>
+      </c>
+      <c r="G35">
+        <v>-0.001882842684916184</v>
+      </c>
+      <c r="H35">
+        <v>-0.004476536634743616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01676264411585577</v>
+        <v>0.01881704086193453</v>
       </c>
       <c r="C36">
-        <v>-0.008074964493698879</v>
+        <v>0.01511839089323509</v>
       </c>
       <c r="D36">
-        <v>-0.07660766682817571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07728147162438953</v>
+      </c>
+      <c r="E36">
+        <v>-0.02829878062106305</v>
+      </c>
+      <c r="F36">
+        <v>0.007843252739950707</v>
+      </c>
+      <c r="G36">
+        <v>-0.002669214021478368</v>
+      </c>
+      <c r="H36">
+        <v>-0.05798004093244387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01812124981752303</v>
+        <v>0.02073758889797721</v>
       </c>
       <c r="C38">
-        <v>-0.01778612416411648</v>
+        <v>0.0200712525584955</v>
       </c>
       <c r="D38">
-        <v>-0.06320295097982052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06647360634567238</v>
+      </c>
+      <c r="E38">
+        <v>-0.03399145954520742</v>
+      </c>
+      <c r="F38">
+        <v>-0.01443596727095704</v>
+      </c>
+      <c r="G38">
+        <v>-0.04073518647668735</v>
+      </c>
+      <c r="H38">
+        <v>-0.03318060303386892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03279519674236776</v>
+        <v>0.03291559585366993</v>
       </c>
       <c r="C39">
-        <v>-0.05663755282511513</v>
+        <v>0.06923698862683647</v>
       </c>
       <c r="D39">
-        <v>-0.08518504964415027</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.101549033496964</v>
+      </c>
+      <c r="E39">
+        <v>-0.008973257479465327</v>
+      </c>
+      <c r="F39">
+        <v>-0.03136826884239702</v>
+      </c>
+      <c r="G39">
+        <v>-0.01032147835083763</v>
+      </c>
+      <c r="H39">
+        <v>-0.09941801906024106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01208392631081563</v>
+        <v>0.01017081444688808</v>
       </c>
       <c r="C40">
-        <v>-0.04370552045298023</v>
+        <v>0.04128420962321035</v>
       </c>
       <c r="D40">
-        <v>-0.07999377152068254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08738249583686401</v>
+      </c>
+      <c r="E40">
+        <v>-0.05276259393099361</v>
+      </c>
+      <c r="F40">
+        <v>0.0940066677915208</v>
+      </c>
+      <c r="G40">
+        <v>-0.1488603350838915</v>
+      </c>
+      <c r="H40">
+        <v>-0.114546892422452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02390110278832193</v>
+        <v>0.02312149297879766</v>
       </c>
       <c r="C41">
-        <v>-0.003462964605493007</v>
+        <v>0.009389126275733977</v>
       </c>
       <c r="D41">
-        <v>-0.06454591807084452</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05331596446623629</v>
+      </c>
+      <c r="E41">
+        <v>-0.04902781063100189</v>
+      </c>
+      <c r="F41">
+        <v>0.009025077780689525</v>
+      </c>
+      <c r="G41">
+        <v>-0.03218189719666857</v>
+      </c>
+      <c r="H41">
+        <v>-0.03477160602313047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.02494302598682003</v>
+        <v>0.02300699524600036</v>
       </c>
       <c r="C43">
-        <v>-0.01416894453263975</v>
+        <v>0.01856243039978485</v>
       </c>
       <c r="D43">
-        <v>-0.106939152708512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08387714379731537</v>
+      </c>
+      <c r="E43">
+        <v>-0.02572689876501017</v>
+      </c>
+      <c r="F43">
+        <v>0.005064057439336639</v>
+      </c>
+      <c r="G43">
+        <v>-0.03391668669365086</v>
+      </c>
+      <c r="H43">
+        <v>-0.04488448087083374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.009484687775471389</v>
+        <v>0.01451852531710962</v>
       </c>
       <c r="C44">
-        <v>-0.04260680566266839</v>
+        <v>0.04149725328056082</v>
       </c>
       <c r="D44">
-        <v>-0.08041219103386139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1038713600348976</v>
+      </c>
+      <c r="E44">
+        <v>-0.05444409671540319</v>
+      </c>
+      <c r="F44">
+        <v>0.01289704264723682</v>
+      </c>
+      <c r="G44">
+        <v>-0.02541904671607909</v>
+      </c>
+      <c r="H44">
+        <v>-0.06393766309440019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0103751782227737</v>
+        <v>0.01182797357007566</v>
       </c>
       <c r="C46">
-        <v>-0.02559868269093726</v>
+        <v>0.02962041830031182</v>
       </c>
       <c r="D46">
-        <v>-0.08090169340448353</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08699405813234461</v>
+      </c>
+      <c r="E46">
+        <v>-0.03412780720666827</v>
+      </c>
+      <c r="F46">
+        <v>-0.000544352691158089</v>
+      </c>
+      <c r="G46">
+        <v>-0.01887971144839722</v>
+      </c>
+      <c r="H46">
+        <v>-0.09141728922270671</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.08867029628131855</v>
+        <v>0.07990945830545228</v>
       </c>
       <c r="C47">
-        <v>-0.07580438206285102</v>
+        <v>0.09199854127212066</v>
       </c>
       <c r="D47">
-        <v>-0.04380253274629281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03495043640835397</v>
+      </c>
+      <c r="E47">
+        <v>-0.03684364179772216</v>
+      </c>
+      <c r="F47">
+        <v>0.02752023794005395</v>
+      </c>
+      <c r="G47">
+        <v>0.002624385833765797</v>
+      </c>
+      <c r="H47">
+        <v>0.0569613571468813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.009914213699792947</v>
+        <v>0.01424184921932429</v>
       </c>
       <c r="C48">
-        <v>-0.01679518606945514</v>
+        <v>0.02067834301462413</v>
       </c>
       <c r="D48">
-        <v>-0.06218464079697172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07155075508302368</v>
+      </c>
+      <c r="E48">
+        <v>-0.05293118908382163</v>
+      </c>
+      <c r="F48">
+        <v>0.009631186037926386</v>
+      </c>
+      <c r="G48">
+        <v>-0.008279893117525356</v>
+      </c>
+      <c r="H48">
+        <v>-0.06384117035134097</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.05355376562256715</v>
+        <v>0.04894901766770737</v>
       </c>
       <c r="C50">
-        <v>-0.05654912178176075</v>
+        <v>0.06750437157222158</v>
       </c>
       <c r="D50">
-        <v>-0.05893401836337803</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05339153620649193</v>
+      </c>
+      <c r="E50">
+        <v>-0.02870560834566379</v>
+      </c>
+      <c r="F50">
+        <v>0.03829674947725492</v>
+      </c>
+      <c r="G50">
+        <v>-0.03707630379087946</v>
+      </c>
+      <c r="H50">
+        <v>-0.006712418778320493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.009218276465043898</v>
+        <v>0.01116652619528984</v>
       </c>
       <c r="C51">
-        <v>-0.01421864635922282</v>
+        <v>0.01930853547837605</v>
       </c>
       <c r="D51">
-        <v>-0.07764927162914979</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08999697967142709</v>
+      </c>
+      <c r="E51">
+        <v>-0.01241899419554115</v>
+      </c>
+      <c r="F51">
+        <v>-0.002998685331593319</v>
+      </c>
+      <c r="G51">
+        <v>-0.01727541106127837</v>
+      </c>
+      <c r="H51">
+        <v>-0.09231744625625102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08656577061383458</v>
+        <v>0.08672368341152964</v>
       </c>
       <c r="C53">
-        <v>-0.09387526015550315</v>
+        <v>0.1021377641718951</v>
       </c>
       <c r="D53">
-        <v>-0.003710061395491618</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01742447931237375</v>
+      </c>
+      <c r="E53">
+        <v>-0.1081544070042728</v>
+      </c>
+      <c r="F53">
+        <v>0.07572847671539885</v>
+      </c>
+      <c r="G53">
+        <v>0.05721014937486413</v>
+      </c>
+      <c r="H53">
+        <v>0.00454681763371676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02391198133315981</v>
+        <v>0.02506075875999439</v>
       </c>
       <c r="C54">
-        <v>-0.03168149213363073</v>
+        <v>0.03431371254929484</v>
       </c>
       <c r="D54">
-        <v>-0.09370363443770834</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08800840538093985</v>
+      </c>
+      <c r="E54">
+        <v>-0.03610492917788015</v>
+      </c>
+      <c r="F54">
+        <v>-0.005384672731017853</v>
+      </c>
+      <c r="G54">
+        <v>-0.0513511935455085</v>
+      </c>
+      <c r="H54">
+        <v>-0.08024421328537967</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08814967193643208</v>
+        <v>0.08440610662014754</v>
       </c>
       <c r="C55">
-        <v>-0.07120444491354311</v>
+        <v>0.08101877976468923</v>
       </c>
       <c r="D55">
-        <v>0.01140907682046379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00509926498088405</v>
+      </c>
+      <c r="E55">
+        <v>-0.05393483962396563</v>
+      </c>
+      <c r="F55">
+        <v>0.05623941631243878</v>
+      </c>
+      <c r="G55">
+        <v>0.0293082394272826</v>
+      </c>
+      <c r="H55">
+        <v>0.007014478438285177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1366142618856162</v>
+        <v>0.1284385697906147</v>
       </c>
       <c r="C56">
-        <v>-0.1035306252311688</v>
+        <v>0.1267572891360721</v>
       </c>
       <c r="D56">
-        <v>0.004275129631732395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.007430327014717585</v>
+      </c>
+      <c r="E56">
+        <v>-0.05760544180084976</v>
+      </c>
+      <c r="F56">
+        <v>0.05546950343594039</v>
+      </c>
+      <c r="G56">
+        <v>0.01410035810361491</v>
+      </c>
+      <c r="H56">
+        <v>0.05020583174698618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004456083258949697</v>
+        <v>0.01230866129644758</v>
       </c>
       <c r="C58">
-        <v>-0.007848318768126476</v>
+        <v>0.02994560934455941</v>
       </c>
       <c r="D58">
-        <v>-0.2786001244688109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3233467802044209</v>
+      </c>
+      <c r="E58">
+        <v>-0.1322925004146443</v>
+      </c>
+      <c r="F58">
+        <v>0.1194711685401463</v>
+      </c>
+      <c r="G58">
+        <v>-0.06795358785122721</v>
+      </c>
+      <c r="H58">
+        <v>0.06816978552140152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1529186799799278</v>
+        <v>0.182087647643109</v>
       </c>
       <c r="C59">
-        <v>0.1754589611984823</v>
+        <v>-0.1662288717085052</v>
       </c>
       <c r="D59">
-        <v>-0.03807431022891766</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.05373398220056535</v>
+      </c>
+      <c r="E59">
+        <v>-0.02949624477414506</v>
+      </c>
+      <c r="F59">
+        <v>-0.02955834199764747</v>
+      </c>
+      <c r="G59">
+        <v>0.004075986460933794</v>
+      </c>
+      <c r="H59">
+        <v>0.02270023674936923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2397208752152137</v>
+        <v>0.2258562779160437</v>
       </c>
       <c r="C60">
-        <v>-0.0862965253550783</v>
+        <v>0.1074077238481889</v>
       </c>
       <c r="D60">
-        <v>-0.2179630995027186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1309634028688795</v>
+      </c>
+      <c r="E60">
+        <v>0.3434057576014324</v>
+      </c>
+      <c r="F60">
+        <v>-0.03881108340447227</v>
+      </c>
+      <c r="G60">
+        <v>0.07747848618438127</v>
+      </c>
+      <c r="H60">
+        <v>0.1227771042473491</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04050062774287704</v>
+        <v>0.03911417812195174</v>
       </c>
       <c r="C61">
-        <v>-0.05460033294025676</v>
+        <v>0.06303867334499992</v>
       </c>
       <c r="D61">
-        <v>-0.1014857078257017</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09431240653486668</v>
+      </c>
+      <c r="E61">
+        <v>-0.001662685998151897</v>
+      </c>
+      <c r="F61">
+        <v>-0.02245843130508019</v>
+      </c>
+      <c r="G61">
+        <v>-0.009329617900622235</v>
+      </c>
+      <c r="H61">
+        <v>-0.05816875274841114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0143143564281695</v>
+        <v>0.01588492768974359</v>
       </c>
       <c r="C63">
-        <v>-0.02170519117032294</v>
+        <v>0.02941521929423153</v>
       </c>
       <c r="D63">
-        <v>-0.0714527620062087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07308035333887063</v>
+      </c>
+      <c r="E63">
+        <v>-0.01429821882035439</v>
+      </c>
+      <c r="F63">
+        <v>0.005822000591108126</v>
+      </c>
+      <c r="G63">
+        <v>-0.0005842397338478828</v>
+      </c>
+      <c r="H63">
+        <v>-0.05598152660659796</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05471805752426617</v>
+        <v>0.05042587690820387</v>
       </c>
       <c r="C64">
-        <v>-0.07492553213764838</v>
+        <v>0.08189763580377624</v>
       </c>
       <c r="D64">
-        <v>-0.05190177516288591</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05573164048410876</v>
+      </c>
+      <c r="E64">
+        <v>-0.02444845459266935</v>
+      </c>
+      <c r="F64">
+        <v>-0.01356424255977822</v>
+      </c>
+      <c r="G64">
+        <v>0.05027928188685827</v>
+      </c>
+      <c r="H64">
+        <v>-0.05013632744646514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03996881667223381</v>
+        <v>0.04052733619987285</v>
       </c>
       <c r="C65">
-        <v>-0.02115170634630089</v>
+        <v>0.02769985313223044</v>
       </c>
       <c r="D65">
-        <v>-0.1253126985449519</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1202363326645757</v>
+      </c>
+      <c r="E65">
+        <v>0.00244968086518805</v>
+      </c>
+      <c r="F65">
+        <v>0.01070936338150532</v>
+      </c>
+      <c r="G65">
+        <v>-0.01257209526734552</v>
+      </c>
+      <c r="H65">
+        <v>-0.008531411373432591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03677722091632275</v>
+        <v>0.03691479403184628</v>
       </c>
       <c r="C66">
-        <v>-0.06302484089311741</v>
+        <v>0.07825813302299381</v>
       </c>
       <c r="D66">
-        <v>-0.1061706936533846</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1280183650421957</v>
+      </c>
+      <c r="E66">
+        <v>-0.01136533189488829</v>
+      </c>
+      <c r="F66">
+        <v>-0.01658333569218602</v>
+      </c>
+      <c r="G66">
+        <v>-0.02121550662232066</v>
+      </c>
+      <c r="H66">
+        <v>-0.06132250505998933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03928581287235271</v>
+        <v>0.03858669918563856</v>
       </c>
       <c r="C67">
-        <v>-0.02306122909407603</v>
+        <v>0.02666851695187229</v>
       </c>
       <c r="D67">
-        <v>-0.03448841140089344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02788306526241395</v>
+      </c>
+      <c r="E67">
+        <v>-0.01191409793234912</v>
+      </c>
+      <c r="F67">
+        <v>-0.01872440280755889</v>
+      </c>
+      <c r="G67">
+        <v>-0.03406374578083635</v>
+      </c>
+      <c r="H67">
+        <v>-0.03064830339027068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1766389511845306</v>
+        <v>0.2005996177033821</v>
       </c>
       <c r="C68">
-        <v>0.2167768035807188</v>
+        <v>-0.1956054377792415</v>
       </c>
       <c r="D68">
-        <v>-0.01467040866149829</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.02429795838246188</v>
+      </c>
+      <c r="E68">
+        <v>-0.0314667442618432</v>
+      </c>
+      <c r="F68">
+        <v>0.03178576904310956</v>
+      </c>
+      <c r="G68">
+        <v>-0.005338483077986346</v>
+      </c>
+      <c r="H68">
+        <v>-0.01136321836728413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07968194186535039</v>
+        <v>0.07123352181942072</v>
       </c>
       <c r="C69">
-        <v>-0.09054862652870184</v>
+        <v>0.09927354345012282</v>
       </c>
       <c r="D69">
-        <v>-0.06590321355339669</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04826692035034757</v>
+      </c>
+      <c r="E69">
+        <v>-0.02159642385590268</v>
+      </c>
+      <c r="F69">
+        <v>0.00904444980741902</v>
+      </c>
+      <c r="G69">
+        <v>0.006413286084370672</v>
+      </c>
+      <c r="H69">
+        <v>0.02009338385425387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1576799646628632</v>
+        <v>0.1856027601685988</v>
       </c>
       <c r="C71">
-        <v>0.2172208171505138</v>
+        <v>-0.2035185528178782</v>
       </c>
       <c r="D71">
-        <v>-0.02504950738038883</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03801552029410635</v>
+      </c>
+      <c r="E71">
+        <v>-0.0512845181214243</v>
+      </c>
+      <c r="F71">
+        <v>0.06115054650128513</v>
+      </c>
+      <c r="G71">
+        <v>-0.01940785872231039</v>
+      </c>
+      <c r="H71">
+        <v>0.0137709353953717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1024798432157219</v>
+        <v>0.09844117604164974</v>
       </c>
       <c r="C72">
-        <v>-0.05798620988069948</v>
+        <v>0.07841270836616682</v>
       </c>
       <c r="D72">
-        <v>-0.08776270366348513</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0951311756508587</v>
+      </c>
+      <c r="E72">
+        <v>0.04052233272560624</v>
+      </c>
+      <c r="F72">
+        <v>0.02879540951938192</v>
+      </c>
+      <c r="G72">
+        <v>0.02519125021591959</v>
+      </c>
+      <c r="H72">
+        <v>-0.05526798665157601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2553493522527739</v>
+        <v>0.2365760497214572</v>
       </c>
       <c r="C73">
-        <v>-0.05458570050479279</v>
+        <v>0.09821702606389292</v>
       </c>
       <c r="D73">
-        <v>-0.3287803989726074</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1741400578330304</v>
+      </c>
+      <c r="E73">
+        <v>0.6487923732069629</v>
+      </c>
+      <c r="F73">
+        <v>-0.1147583665261479</v>
+      </c>
+      <c r="G73">
+        <v>0.1235644977925087</v>
+      </c>
+      <c r="H73">
+        <v>0.1276125486370905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1043570211693644</v>
+        <v>0.09486851387621213</v>
       </c>
       <c r="C74">
-        <v>-0.07798382426093298</v>
+        <v>0.0927805614218836</v>
       </c>
       <c r="D74">
-        <v>0.006211963737436975</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01312070796862497</v>
+      </c>
+      <c r="E74">
+        <v>-0.04958406402692084</v>
+      </c>
+      <c r="F74">
+        <v>0.06994988965285197</v>
+      </c>
+      <c r="G74">
+        <v>0.06205220572831908</v>
+      </c>
+      <c r="H74">
+        <v>0.03391024997700339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2457039319210916</v>
+        <v>0.2247431707242958</v>
       </c>
       <c r="C75">
-        <v>-0.1374099210032501</v>
+        <v>0.1661910565737855</v>
       </c>
       <c r="D75">
-        <v>0.0773448075526946</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.09705642005592283</v>
+      </c>
+      <c r="E75">
+        <v>-0.1106966117840156</v>
+      </c>
+      <c r="F75">
+        <v>0.01968189332405153</v>
+      </c>
+      <c r="G75">
+        <v>0.04429358094616188</v>
+      </c>
+      <c r="H75">
+        <v>0.1073217790182787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1333635459816346</v>
+        <v>0.1236203127725166</v>
       </c>
       <c r="C76">
-        <v>-0.09852508812082038</v>
+        <v>0.113087408427147</v>
       </c>
       <c r="D76">
-        <v>0.007321008449168587</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.006244063456467549</v>
+      </c>
+      <c r="E76">
+        <v>-0.1119255656447923</v>
+      </c>
+      <c r="F76">
+        <v>0.03550246432410217</v>
+      </c>
+      <c r="G76">
+        <v>0.02730462118082079</v>
+      </c>
+      <c r="H76">
+        <v>-0.003018968980466499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.0469500519475252</v>
+        <v>0.05752109483584122</v>
       </c>
       <c r="C77">
-        <v>-0.06554336663283498</v>
+        <v>0.06941785818474382</v>
       </c>
       <c r="D77">
-        <v>-0.03813825629723566</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1277644935901932</v>
+      </c>
+      <c r="E77">
+        <v>-0.2976637054405246</v>
+      </c>
+      <c r="F77">
+        <v>-0.2733570725743515</v>
+      </c>
+      <c r="G77">
+        <v>-0.2533762407497489</v>
+      </c>
+      <c r="H77">
+        <v>0.7525357496715173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03436836262950481</v>
+        <v>0.04293345686073684</v>
       </c>
       <c r="C78">
-        <v>-0.05786062471680912</v>
+        <v>0.06909092813253537</v>
       </c>
       <c r="D78">
-        <v>-0.1263656041541873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1387696314551369</v>
+      </c>
+      <c r="E78">
+        <v>-0.02169410700242943</v>
+      </c>
+      <c r="F78">
+        <v>0.02707669463098483</v>
+      </c>
+      <c r="G78">
+        <v>-0.01204687568904149</v>
+      </c>
+      <c r="H78">
+        <v>-0.001494997834168071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.03411289915411578</v>
+        <v>0.04774360262028878</v>
       </c>
       <c r="C79">
-        <v>-0.08213027750168188</v>
+        <v>0.09801933840140493</v>
       </c>
       <c r="D79">
-        <v>0.09967156684691011</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02625744478987983</v>
+      </c>
+      <c r="E79">
+        <v>-0.233532077619957</v>
+      </c>
+      <c r="F79">
+        <v>0.2993320802668257</v>
+      </c>
+      <c r="G79">
+        <v>0.7575605666985957</v>
+      </c>
+      <c r="H79">
+        <v>0.1034636637093778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.02409011579987689</v>
+        <v>0.024490886138042</v>
       </c>
       <c r="C80">
-        <v>-0.04461554098270801</v>
+        <v>0.04733696033483845</v>
       </c>
       <c r="D80">
-        <v>-0.01781551458025688</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02058953370526519</v>
+      </c>
+      <c r="E80">
+        <v>-0.02108360934940984</v>
+      </c>
+      <c r="F80">
+        <v>-0.00335294017904889</v>
+      </c>
+      <c r="G80">
+        <v>-0.02322488415352197</v>
+      </c>
+      <c r="H80">
+        <v>-0.05439212253374456</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1363117362617796</v>
+        <v>0.121270391581696</v>
       </c>
       <c r="C81">
-        <v>-0.105799504958437</v>
+        <v>0.1221385442144121</v>
       </c>
       <c r="D81">
-        <v>0.06938037251077181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07557708232946825</v>
+      </c>
+      <c r="E81">
+        <v>-0.1089512612636803</v>
+      </c>
+      <c r="F81">
+        <v>0.05077999371374745</v>
+      </c>
+      <c r="G81">
+        <v>0.02279300006659256</v>
+      </c>
+      <c r="H81">
+        <v>0.02916129336256465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3041451749470159</v>
+        <v>0.2570580784930527</v>
       </c>
       <c r="C82">
-        <v>-0.2807068350853354</v>
+        <v>0.2735207970943501</v>
       </c>
       <c r="D82">
-        <v>0.2404465456381557</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2417601833458956</v>
+      </c>
+      <c r="E82">
+        <v>0.01783535833529314</v>
+      </c>
+      <c r="F82">
+        <v>0.01818949771873428</v>
+      </c>
+      <c r="G82">
+        <v>-0.1551260731970355</v>
+      </c>
+      <c r="H82">
+        <v>0.04730518258038711</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0263265533410831</v>
+        <v>0.02138234981756403</v>
       </c>
       <c r="C83">
-        <v>-0.05291015162736046</v>
+        <v>0.04942422559308553</v>
       </c>
       <c r="D83">
-        <v>-0.04373597441434896</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05135185292497848</v>
+      </c>
+      <c r="E83">
+        <v>-0.02707805232668222</v>
+      </c>
+      <c r="F83">
+        <v>-0.0640671688274173</v>
+      </c>
+      <c r="G83">
+        <v>-0.03561974084132538</v>
+      </c>
+      <c r="H83">
+        <v>0.08103394374746989</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0008773418163177579</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004814346615800416</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01843291617815523</v>
+      </c>
+      <c r="E84">
+        <v>-0.01947105371029352</v>
+      </c>
+      <c r="F84">
+        <v>0.01360596950573347</v>
+      </c>
+      <c r="G84">
+        <v>-0.007605008053715744</v>
+      </c>
+      <c r="H84">
+        <v>-0.01966790136761452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1685771668236826</v>
+        <v>0.153638928260585</v>
       </c>
       <c r="C85">
-        <v>-0.1149818939457159</v>
+        <v>0.1386731875169418</v>
       </c>
       <c r="D85">
-        <v>0.03558115248872901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06046658852382777</v>
+      </c>
+      <c r="E85">
+        <v>-0.04299445688129726</v>
+      </c>
+      <c r="F85">
+        <v>0.05473976135893296</v>
+      </c>
+      <c r="G85">
+        <v>0.09971530337814924</v>
+      </c>
+      <c r="H85">
+        <v>5.357106631223425e-05</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01521405972117806</v>
+        <v>0.01936515771482327</v>
       </c>
       <c r="C86">
-        <v>-0.03683028798483916</v>
+        <v>0.0305985119237253</v>
       </c>
       <c r="D86">
-        <v>-0.1156953138180674</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1168516282409758</v>
+      </c>
+      <c r="E86">
+        <v>-0.03117322103496824</v>
+      </c>
+      <c r="F86">
+        <v>-0.01674942237073393</v>
+      </c>
+      <c r="G86">
+        <v>-0.0579750543197343</v>
+      </c>
+      <c r="H86">
+        <v>0.0302562263413763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02314819349338732</v>
+        <v>0.03467904717841618</v>
       </c>
       <c r="C87">
-        <v>-0.01274450395070155</v>
+        <v>0.02516097705557699</v>
       </c>
       <c r="D87">
-        <v>-0.1029576094791672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1414508533413638</v>
+      </c>
+      <c r="E87">
+        <v>-0.08373414800483546</v>
+      </c>
+      <c r="F87">
+        <v>0.01265033350399827</v>
+      </c>
+      <c r="G87">
+        <v>-0.033801393890915</v>
+      </c>
+      <c r="H87">
+        <v>-0.04730915837063313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.07191443152960471</v>
+        <v>0.06563809666720559</v>
       </c>
       <c r="C88">
-        <v>-0.04266665646700329</v>
+        <v>0.05498368826561591</v>
       </c>
       <c r="D88">
-        <v>-0.04287796126563653</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02365945803067834</v>
+      </c>
+      <c r="E88">
+        <v>0.001871908967774044</v>
+      </c>
+      <c r="F88">
+        <v>0.02596762297199574</v>
+      </c>
+      <c r="G88">
+        <v>0.002026657020477573</v>
+      </c>
+      <c r="H88">
+        <v>-0.03292411349145807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2478772945601643</v>
+        <v>0.2879552993705869</v>
       </c>
       <c r="C89">
-        <v>0.3890888993029906</v>
+        <v>-0.347841012588099</v>
       </c>
       <c r="D89">
-        <v>0.01749110572622452</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.004386781539917908</v>
+      </c>
+      <c r="E89">
+        <v>-0.06159125571077222</v>
+      </c>
+      <c r="F89">
+        <v>-0.009426734990810322</v>
+      </c>
+      <c r="G89">
+        <v>0.01061283889157451</v>
+      </c>
+      <c r="H89">
+        <v>-0.1157932996804473</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2202883775870564</v>
+        <v>0.2447961491860581</v>
       </c>
       <c r="C90">
-        <v>0.2888034836552544</v>
+        <v>-0.2462620004447401</v>
       </c>
       <c r="D90">
-        <v>-0.003875935932817884</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.0240370543291209</v>
+      </c>
+      <c r="E90">
+        <v>-0.04783491168898953</v>
+      </c>
+      <c r="F90">
+        <v>-0.008069494184411176</v>
+      </c>
+      <c r="G90">
+        <v>-0.06075445546532827</v>
+      </c>
+      <c r="H90">
+        <v>-0.01869971315571352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1732418038501662</v>
+        <v>0.1542976338323196</v>
       </c>
       <c r="C91">
-        <v>-0.1505281137197116</v>
+        <v>0.1578331116498975</v>
       </c>
       <c r="D91">
-        <v>0.08777003743374857</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08478345627410067</v>
+      </c>
+      <c r="E91">
+        <v>-0.1102054749731017</v>
+      </c>
+      <c r="F91">
+        <v>0.05717175210724854</v>
+      </c>
+      <c r="G91">
+        <v>0.08507127308776297</v>
+      </c>
+      <c r="H91">
+        <v>0.07421308370226612</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1918394863553055</v>
+        <v>0.2298094826504837</v>
       </c>
       <c r="C92">
-        <v>0.2721875227524913</v>
+        <v>-0.2675645406918086</v>
       </c>
       <c r="D92">
-        <v>-0.01586537145193312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03151153418907995</v>
+      </c>
+      <c r="E92">
+        <v>-0.07970763195866933</v>
+      </c>
+      <c r="F92">
+        <v>-0.007892446755913782</v>
+      </c>
+      <c r="G92">
+        <v>-0.02359594408209449</v>
+      </c>
+      <c r="H92">
+        <v>0.004617753450113805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2451961150182285</v>
+        <v>0.2652122040633081</v>
       </c>
       <c r="C93">
-        <v>0.2991090494344709</v>
+        <v>-0.2562636714562287</v>
       </c>
       <c r="D93">
-        <v>-0.005976982583059631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004303924173920939</v>
+      </c>
+      <c r="E93">
+        <v>0.005238237523220677</v>
+      </c>
+      <c r="F93">
+        <v>0.01936727323869699</v>
+      </c>
+      <c r="G93">
+        <v>0.01018587528511775</v>
+      </c>
+      <c r="H93">
+        <v>-0.001169165282740587</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3715607406478511</v>
+        <v>0.330603398050433</v>
       </c>
       <c r="C94">
-        <v>-0.227288699228604</v>
+        <v>0.2623591189190742</v>
       </c>
       <c r="D94">
-        <v>0.4341282045743058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4358355984165458</v>
+      </c>
+      <c r="E94">
+        <v>-0.05067274053105226</v>
+      </c>
+      <c r="F94">
+        <v>-0.02904650040036653</v>
+      </c>
+      <c r="G94">
+        <v>-0.2875992621119646</v>
+      </c>
+      <c r="H94">
+        <v>-0.2911264997203191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06809838514664263</v>
+        <v>0.06327618334496229</v>
       </c>
       <c r="C95">
-        <v>-0.0589144036796489</v>
+        <v>0.06566675882124683</v>
       </c>
       <c r="D95">
-        <v>-0.05268138882344912</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06275997886347291</v>
+      </c>
+      <c r="E95">
+        <v>-0.1942039524490928</v>
+      </c>
+      <c r="F95">
+        <v>-0.8416969770209128</v>
+      </c>
+      <c r="G95">
+        <v>0.305288777747051</v>
+      </c>
+      <c r="H95">
+        <v>-0.2341698798472017</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1680690841692269</v>
+        <v>0.1620562970119773</v>
       </c>
       <c r="C98">
-        <v>-0.04366059949853965</v>
+        <v>0.07424377104993408</v>
       </c>
       <c r="D98">
-        <v>-0.1813376358874937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.128571879389801</v>
+      </c>
+      <c r="E98">
+        <v>0.3038608930281247</v>
+      </c>
+      <c r="F98">
+        <v>-0.003211851139429597</v>
+      </c>
+      <c r="G98">
+        <v>0.06540244376040058</v>
+      </c>
+      <c r="H98">
+        <v>0.07493807059713137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0008269536081914039</v>
+        <v>0.003491107629715206</v>
       </c>
       <c r="C101">
-        <v>-0.02241595299036515</v>
+        <v>0.02168772758403171</v>
       </c>
       <c r="D101">
-        <v>-0.07139556911456323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.09002350737738805</v>
+      </c>
+      <c r="E101">
+        <v>-0.02333603004097099</v>
+      </c>
+      <c r="F101">
+        <v>0.02348258623458631</v>
+      </c>
+      <c r="G101">
+        <v>-0.02250381002430988</v>
+      </c>
+      <c r="H101">
+        <v>-0.1042731943840678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1218149837999487</v>
+        <v>0.1041127713837743</v>
       </c>
       <c r="C102">
-        <v>-0.1187551036778523</v>
+        <v>0.1205629189337349</v>
       </c>
       <c r="D102">
-        <v>0.05175892253917438</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.06250356725106448</v>
+      </c>
+      <c r="E102">
+        <v>-0.03141978526196484</v>
+      </c>
+      <c r="F102">
+        <v>-0.01204396714832124</v>
+      </c>
+      <c r="G102">
+        <v>0.001446797449048554</v>
+      </c>
+      <c r="H102">
+        <v>0.04454092675374857</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
